--- a/레벨.xlsx
+++ b/레벨.xlsx
@@ -397,13 +397,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17"/>
   <cols>
     <col width="29.83203125" customWidth="1" min="1" max="1"/>
   </cols>
@@ -415,11 +415,11 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>2021/01/11 18:54:48</t>
+          <t>2021/01/11 22:22:03</t>
         </is>
       </c>
     </row>
@@ -434,7 +434,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021/01/11 18:54:48</t>
+          <t>2021/01/11 21:18:01</t>
         </is>
       </c>
     </row>
@@ -445,11 +445,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-20</v>
+        <v>114</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021/01/11 18:53:22</t>
+          <t>2021/01/11 22:01:55</t>
         </is>
       </c>
     </row>
@@ -460,6 +460,111 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2021/01/11 21:05:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>768086907317649430</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>42</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2021/01/11 22:22:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>441003067668955166</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>259</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2021/01/11 21:05:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>508195540245151762</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>13</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2021/01/11 21:54:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>523017072796499968</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2021/01/11 21:43:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>523017072796499968</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2021/01/11 21:43:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>523017072796499968</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2021/01/11 21:43:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>523017072796499968</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>5</v>
       </c>
     </row>

--- a/레벨.xlsx
+++ b/레벨.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14020" windowWidth="25820" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,15 +50,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="표준" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -405,7 +405,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="17"/>
   <cols>
-    <col width="29.83203125" customWidth="1" min="1" max="1"/>
+    <col customWidth="1" max="1" min="1" width="29.83203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>
@@ -430,7 +430,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114</v>
+        <v>351</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -568,8 +568,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>614771330285305856</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>415445824747864064</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>